--- a/NewsFeed_Linguistics.xlsx
+++ b/NewsFeed_Linguistics.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,3842 @@
         <v>45572</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kelsey Mulvey, Contributor, 
+ Kelsey Mulvey, Contributor
+ https://www.forbes.com/sites/forbes-personal-shopper/people/kelseymulvey/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>The Best Early Prime Day Robot Vacuum Deals: Save Up To 49% Right Now</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Save up to 49% on a top-of-the-line model from Roomba, Eufy and more with these early Prime Day robot vacuum deals.</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>https://www.forbes.com/sites/forbes-personal-shopper/2024/10/05/prime-day-robot-vacuum-deals/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>All products and services featured are independently selected by Forbes Vetted contributors and editors. When you make a purchase through links on this page, we may earn a commission.&amp;amp;nbsp;Learn … [+16232 chars]</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chinadigitaltimes.net</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cindy Carter</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Online Reactions to Fatal Stabbings at Shanghai Walmart, Zurich Daycare Center</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Chinese netizens and bloggers have responded to two recent fatal stabbings—one at home and one abroad—with shock, online detective work, and comparisons to two other previous stabbings that targeted Japanese residents in Shenzhen and Suzhou. The first recent …</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>https://chinadigitaltimes.net/2024/10/online-reactions-to-fatal-stabbings-at-shanghai-walmart-zurich-daycare-center/</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chinese netizens and bloggers have responded to two recent fatal stabbingsone at home and one abroadwith shock, online detective work, and comparisons to two other previous stabbings that targeted Ja… [+7308 chars]</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SoraNews24</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Casey Baseel</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Pizza Hut Japan creates Landmine-type Pizza to celebrate Japan’s dark jirai-kei fashion</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>“You’re not gonna eat me because I’m not cute, right?” Pizza Hut Japan has shown that’s it’s always ready to experiment with some outside-the-box ideas, which is how we got both a ramen pizza and a plum pizza this year. They’re not out of bold concepts yet, t…</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>https://soranews24.com/2024/10/05/pizza-hut-japan-creates-landmine-type-pizza-to-celebrate-japans-dark-jirai-kei-fashion/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-10-05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Youre not gonna eat me because Im not cute, right?
+Pizza Hut Japan has shown thats its always ready to experiment with some outside-the-box ideas, which is how we got both a ramen pizza and a plum p… [+3063 chars]</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NPR</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alana Wise</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>‘Touch grass,’ ‘For You page’: See 200 new words and phrases added to Merriam-Webster</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>“Our lexicographers monitor a huge range of sources to select which words and definitions to add,” Merriam-Webster's Peter Sokolowski said. These sources range from academic journals to social media.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>https://www.npr.org/2024/10/04/g-s1-26417/new-words-phrases-added-merriam-webster</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>In the ever-evolving world of linguistics, it can sometimes be challenging to keep up with new words, from slang to science. The online dictionary, Merriam-Webster.com, has taken a stab at keeping it… [+1936 chars]</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NPR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Alana Wise</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>‘Touch grass,’ ‘For You page’: See 200 new words and phrases added to Merriam-Webster</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>“Our lexicographers monitor a huge range of sources to select which words and definitions to add,” Merriam-Webster's Peter Sokolowski said. These sources range from academic journals to social media.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>https://www.npr.org/2024/10/04/g-s1-26417/touch-grass-for-you-page-see-the-new-words-and-phrases-added-to-merriam-webster</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>In the ever-evolving world of linguistics, it can sometimes be challenging to keep up with new words, from slang to science. The online dictionary, Merriam-Webster.com, has taken a stab at keeping it… [+1936 chars]</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ABC News</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MONIKA PRONCZUK Associated Press</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>In Senegal, the bastion of the region's Francophonie, French is giving way to local languages</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>For decades Senegal, a former French colony in West Africa, has been touted as the bastion of the French language in the region</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>https://abcnews.go.com/International/wireStory/senegal-bastion-regions-francophonie-french-giving-local-languages-114500233</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>DAKAR, Senegal -- For decades Senegal, a former French colony in West Africa, has been touted as the bastion of the French language in the region. Leopold Sedar Senghor, the countrys first president … [+4906 chars]</t>
+        </is>
+      </c>
+      <c r="H12" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Foreign Policy</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Gregory Jones-Katz</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>The World Still Needs French Theory</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Postmodernism is dead. Long live postmodernism.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>https://foreignpolicy.com/2024/10/04/fredric-jameson-french-theory-postmodernism-literature-globalization/</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>French theory always seems to be a problem. Merely mention it and necks jerk, brows furrow, and, sometimes, a stream of invectives issues forth.
+The Years of Theory, by the recently deceased and leg… [+11244 chars]</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Scientific American</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kyne Santos, Rachel Feltman, Fonda Mwangi, Madison Goldberg, Jeffery DelViscio</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Today’s Mathematicians Seek Modern Solutions to Complex Problems</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Today’s mathematicians grapple with higher-order mathematical questions and real-world applications.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/podcast/episode/todays-mathematicians-seek-modern-solutions-to-complex-problems/</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>[CLIP: Theme music]
+Rachel Feltman: When I was a little kid, I remember being really perplexed and fascinated by the concept of discovering a new number. Like, if you counted high enough to get to a… [+16421 chars]</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Newsweek</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Ryan Smith</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>'Wordle' #1,203 Hints, Clues and Answer for Friday, October 4 Game</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>If you're stuck on today's brainteaser, Newsweek has your back.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>https://www.newsweek.com/wordle-today-clues-answer-friday-october-4-game-1203-1963046</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>If you're struggling with today's Wordle, you're in good company—just ask the game's inventor.
+"[My partner] and I play it on the couch together each morning," New York-based software engineer Josh … [+2927 chars]</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Tistory.com</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>열이아빠</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024년 10월 테크니컬 라이팅 이런 저런 소식</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10월 4일
+Write the Docs Atlantic 2024 발표 영상
+Write the Docs Atlantic 2024 발표 영상이 공개됐습니다. 아래 링크에서 영상을 확인하실 수 있습니다. https://www.youtube.com/playlist?list=PLZAeFn6dfHpn8IckCiREggN0f9oWEMomW
+Atlantic 컨퍼런스는 9월 22일부터 24일까지 온라인으로 진행됐습니다. 올해 마지막 컨퍼런스는 11월 28일부터 29…</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>https://koko8829.tistory.com/2515</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Write the Docs Atlantic 2024  
+Write the Docs Atlantic 2024   .      . https://www.youtube.com/playlist?list=PLZAeFn6dfHpn8IckCiREggN0f9oWEMomW
+Atlantic  9 22 24  .    11 28 29  Write the Docs Aust… [+1192 chars]</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Thehillstimes.in</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>The Hills Times</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Indian Knowledge System is universal heritage: Assam Governor</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>HT Bureau GUWAHATI, Oct 3: Governor Lakshman Prasad Acharya said that for India to contribute to a developed Asia, the ancient knowledge of the country should be integrated with modern science to make the ancient knowledge system more compatible in finding so…</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>https://thehillstimes.in/guwahati/indian-knowledge-system-is-universal-heritage-assam-governor</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-10-04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>HT Bureau
+GUWAHATI, Oct 3: Governor Lakshman Prasad Acharya said that for India to contribute to a developed Asia, the ancient knowledge of the country should be integrated with modern science to ma… [+2689 chars]</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ABC News (AU)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Max Walden</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Elite school faces criticism from Indonesian government over axing of language program</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>As the federal government pursues closer economic ties with Indonesia, studies of the country's language and culture are on the decline across Australia.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>https://www.abc.net.au/news/2024-10-04/scotch-college-bahasa-indonesia-language-learning-decline/104355632</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Read the story in Bahasa Indonesia
+An elite Melbourne school will stop teaching Bahasa Indonesia, ending one of the country's longest running school Indonesian language programs in a move experts sa… [+5149 chars]</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Pypi.org</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>songshichao517@gmail.com</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>eval-suite added to PyPI</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>User-friendly evaluation framework: Eval Suite &amp; Benchmarks: UHGEval, HaluEval, HalluQA, etc.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>https://pypi.org/project/eval-suite/</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>What does this repository include?UHGEval: An unconstrained hallucination evaluation benchmark.Eval Suite: A user-friendly evaluation framework for hallucination tasks.Eval Suite supports other bench… [+3776 chars]</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>linda.didesidero@gmail.com</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[Technical and Professional Communication] (CEA 3/27-3/29/2025)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>updated: 
+Friday, October 4, 2024 - 8:50am
+College English Association
+deadline for submissions: 
+Thursday, October 3, 2024
+Subject: Call for Papers: Technical and Professional Communication at CEA 2025
+Call for Papers, Grammar/Linguistics at CEA 2…</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://call-for-papers.sas.upenn.edu/cfp/2024/10/03/technical-and-professional-communication-cea-327-3292025</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Subject: Call for Papers: Technical and Professional Communication at CEA 2025
+Call for Papers, Grammar/Linguistics at CEA 2025
+March 27-29, 2025 | Philadelphia, Pennsylvania
+Sonesta Philadelphia … [+3593 chars]</t>
+        </is>
+      </c>
+      <c r="H20" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>linda.didesidero@gmail.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[Grammar/ Linguistics] (CEA 3/27-3/29/2025)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>updated: 
+Friday, October 4, 2024 - 8:49am
+College English Association
+deadline for submissions: 
+Friday, November 1, 2024
+Subject: Call for Papers: Grammar/Linguistics at CEA 2025
+Call for Papers, Grammar/Linguistics at CEA 2025
+March 27-29, 202…</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://call-for-papers.sas.upenn.edu/cfp/2024/10/03/grammar-linguistics-cea-327-3292025</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Subject: Call for Papers: Grammar/Linguistics at CEA 2025
+Call for Papers, Grammar/Linguistics at CEA 2025
+March 27-29, 2025 | Philadelphia, Pennsylvania
+Sonesta Philadelphia Rittenhouse Square180… [+3551 chars]</t>
+        </is>
+      </c>
+      <c r="H21" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Plos.org</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Khandaker Mohammad Mohi Uddin, Hasibul Hamim, Mst. Nishat Tasnim Mim, Arnisha Akhter, Md Ashraf Uddin</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Machine learning and deep learning-based approach to categorize Bengali comments on social networks using fused dataset</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Through the advancement of the contemporary web and the rapid adoption of social media platforms such as YouTube, Twitter, and Facebook, for example, life has become much easier when dealing with certain highly personal problems. The far-reaching consequences…</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0308862</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Abstract
+Through the advancement of the contemporary web and the rapid adoption of social media platforms such as YouTube, Twitter, and Facebook, for example, life has become much easier when dealin… [+77399 chars]</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>The Punch</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Chigozie Uzosike</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Uzodimma appoints acting head of service</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Imo State Governor, Hope Uzodimma, on Wednesday, appointed in acting capacity, the immediate past Permanent Secretary of the Ministry of Special Duties, Mrs Chikodi Emenalom, as the new Head of Service for the State Civil Service. This is contained in a state…</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>https://punchng.com/uzodimma-appoints-acting-head-of-service/</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Imo State Governor, Hope Uzodimma, on Wednesday, appointed in acting capacity, the immediate past Permanent Secretary of the Ministry of Special Duties, Mrs Chikodi Emenalom, as the new Head of Servi… [+1202 chars]</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Newsweek</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Ryan Smith</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>'Wordle' #1,202 Hints, Clues and Answer for Thursday, October 3 Game</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>If today's brainteaser has left you lost for words, Newsweek has all the information you need to get back on track.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://www.newsweek.com/wordle-today-clues-answer-thursday-october-3-game-1202-1962420</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>If you're working to maintain your Wordle win streak—or looking to start a new one—Newsweek has all the information you need to secure a victory.
+Years after coming up with the initial concept, Josh… [+2678 chars]</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Stanford.edu</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Summit explores AI’s role in policing reform</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The summit brought together experts in law enforcement, policy, and technology to explore how AI analysis of body camera footage can improve policing, predict outcomes, and enhance public safety.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://news.stanford.edu/stories/2024/10/summit-explores-ai-s-role-in-policing-reform</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-10-03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Three former Memphis police officers are on trial for the beating death of 29-year-old Tyre Nichols in January 2023. Two others have already pleaded guilty.
+Graphic police body camera video document… [+7579 chars]</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Scientific American</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Kelso Harper</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>What Linguistic Analysis from the 2024 Debates Reveals about Harris, Trump, Walz and Vance</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Linguist and sociophonetician Nicole Holliday analyzes the language used by candidates in the recent presidential and vice presidential debates</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/article/what-linguistic-analysis-from-the-2024-debates-reveals-about-harris-trump/</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>In election debates, language matters. So Scientific American reached out to a linguist for a professional analysis of the recent presidential and vice presidential debates.
+Nicole Holliday is an ac… [+3655 chars]</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Forbes</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Casey Murphy, Contributor, 
+ Casey Murphy, Contributor
+ https://www.forbes.com/sites/caseymurphy/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NBA Star Dikembe Mutombo Dies At 58: A Legacy Beyond Basketball</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NBA star Dikembe Mutombo has died at 58 after battling brain cancer. Discover his inspiring story as a humanitarian and NBA legend with lasting community impact.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>https://www.forbes.com/sites/caseymurphy/2024/10/02/nba-star-dikembe-mutombo-dies-at-58-a-legacy-beyond-basketball/</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>USA - MARCH 1: Dikembe Mutombo of the Denver Nuggets poses for a photo on March 1, 1996. (Photo by ... [+] Sporting News via Getty Images via Getty Images)
+Sporting News via Getty Images
+NBA star D… [+4776 chars]</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>zimmerlys@uindy.edu</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Journal Submissions: Indiana English</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>updated: 
+Friday, October 4, 2024 - 6:29am
+Indiana English (Indiana College English Association)
+deadline for submissions: 
+Friday, May 30, 2025
+Indiana English encourages submissions on the role of English studies in the Midwest but will consider submis…</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>http://call-for-papers.sas.upenn.edu/cfp/2024/10/02/journal-submissions-indiana-english</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Indiana English encourages submissions on the role of English studies in the Midwest but will consider submissions on any topic related to English literature and criticism, linguistics, or pedagogy. … [+2040 chars]</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Plos.org</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Martin Wutke, Clara Lensches, Ulrich Hartmann, Imke Traulsen</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Towards automatic farrowing monitoring—A Noisy Student approach for improving detection performance of newborn piglets</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Nowadays, video monitoring of farrowing and automatic video evaluation using Deep Learning have become increasingly important in farm animal science research and open up new possibilities for addressing specific research questions like the determination of hu…</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0310818</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Abstract
+Nowadays, video monitoring of farrowing and automatic video evaluation using Deep Learning have become increasingly important in farm animal science research and open up new possibilities f… [+56796 chars]</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Plos.org</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Christophe Jenny, Gabriel Sachter-Smith, Catherine Breton, Ronan Rivallan, Jean-Pierre Jacquemoud-Collet, Cécile Dubois, Matthieu Chabannes, Ngọc-Sâm Lý, Thomas Haevermans, Tiến-Dũng Triệu, Oudomphone Insisiengmay, Ting Zhang, Marie-Line Caruana, Julie Sardos, Xavier Perrier</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Musa species in mainland Southeast Asia: From wild to domesticate</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Many species are defined in the Musa section within its natural diversification area in Southeast Asia. However, their actual number remains debated as botanical characterisation, distribution and intraspecific variability are still poorly known, compromising…</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0307592</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Introduction
+Plants in the family Musaceae Juss. are giant herbaceous monocots. Three genera are recognized in this family: Ensete (Bruce) Horan, Musella Franch., and Musa L. Botanists have describe… [+73585 chars]</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Plos.org</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Jiaqi Wang, Niels O. Schiller, Rinus G. Verdonschot</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Morphological encoding in language production: Electrophysiological evidence from Mandarin Chinese compound words</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>This study investigates the role of morphology during speech planning in Mandarin Chinese. In a long-lag priming experiment, thirty-two Mandarin Chinese native speakers were asked to name target pictures (e.g., “山” /shan1/ "mountain"). The design involved pic…</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0310816</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Citation: Wang J, Schiller NO, Verdonschot RG (2024) Morphological encoding in language production: Electrophysiological evidence from Mandarin Chinese compound words. PLoS ONE 19(10):
+ e0310816.
+h… [+44430 chars]</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>newsBTC</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rubmar Garcia</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Bonk ‘In Prime Position For Turbo Green Week’ As Price Recovers Key Level</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Bonk continues its bullish rally as ‘Uptober’ begins, sparking a bullish sentiment among investors after the recent fear of a major pullback. The memecoin sensation kickstarted its Q4 journey positively, reclaiming crucial levels, with investors and crypto an…</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>http://www.newsbtc.com/news/bonk-in-prime-position-for-turbo-green-week-as-price-recovers-key-level/</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Rubmar is a writer and translator who has been a crypto enthusiast for the past four years. Her goal as a writer is to create informative, complete, and easily understandable pieces accessible to tho… [+3487 chars]</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>New Zealand Herald</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Jogai Bhatt</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Sigma is in, slay is out: These new slang words being used</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Nothing screams 'How do you do, fellow kids?' like trying to use their slang.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>https://www.nzherald.co.nz/lifestyle/sigma-is-in-slay-is-out-the-new-slang-words-and-why-your-kids-dont-want-you-to-use-them/543HKKCYBBDZ5PM2SJZOJ7LA2U/</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>But why do we find it cringe when old people try to use slang? Who determines when words are in and when theyre out? And where do they come from anyway?
+Skibidi, Sigma, Rizz - where did it all come … [+6310 chars]</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Inference-review.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>David Berlinski &amp; Juan Uriagereka</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>The Recovery of Case (2016)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Jean-Roger Vergnaud’s famous 1977 letter to Noam Chomsky and Howard Lasnik assumed that case is obligatory. As Juan Uriagereka and David Berlinski argue, Vergnaud’s case filter was a vindication of the principles and parameters approach to language. Case is a…</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>https://inference-review.com/article/the-recovery-of-case</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>It is April 1977. Noam Chomsky and Howard Lasnik are about to publish an important essay in linguistics.1 Having seen and studied the preprint of Filters and Control, Jean-Roger Vergnaud wrote to its… [+58795 chars]</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mercola.com</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>communities@mercola.com (Dr. Joseph Mercola)</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Where Did Your Favorite Food Come From?</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Editor's Note: This article is a reprint. It was originally published December 12, 2016.
+Have you ever wondered what our ancestors ate and where their foods came from? How many food-based plants grew wild, and how many of these foods were improved through cu…</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>https://articles.mercola.com/sites/articles/archive/2024/10/02/food-origins.aspx</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2024-10-02</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Mercola proudly supports these charities and organizations. View All 
+Disclaimer: The entire contents of this website are based upon the opinions of Dr. Mercola, unless otherwise noted. Individual a… [+1007 chars]</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Footwear News</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Ian Servantes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A Look Back at Dikembe Mutombo’s Signature Sneakers and His History With Adidas</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>The Adidas Mutombo remains one of the most eccentric signature sneakers in basketball.</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>http://footwearnews.com/shoes/sneaker-news/adidas-dikembe-mutombo-sneakers-1203697177/</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Dikembe Mutombo, the Basketball Hall of Famer known as much for his finger wagging and singular voice as his defensive prowess, passed away Monday at the age of 58 after a battle with brain cancer. 
+… [+7009 chars]</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Phys.Org</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Chemnitz University of Technology</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Archaeologists develop system to produce unique names for Stone Age skeletons and mummies</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>When we talk about the Stone Age today, we usually focus on people and their personal stories—like the well-known glacier man "Ötzi." This is possible because the latest scientific methods in archaeology provide insights that literally make human remains come…</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>https://phys.org/news/2024-10-archaeologists-unique-stone-age-skeletons.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>When we talk about the Stone Age today, we usually focus on people and their personal storieslike the well-known glacier man "Ötzi." This is possible because the latest scientific methods in archaeol… [+3040 chars]</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Freerepublic.com</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PJ Media</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Dikembe Mutombo: Farewell to One of the Giants of Basketball and Humanitarianism</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>One of the giants of the sports world passed away yesterday. Dikembe Mutombo was an impressive basketball player with an 18-year NBA career, and at 7-foot-2-inches tall, he towered over mere mortals as well as some of his teammates and competitors. Born in 19…</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>https://freerepublic.com/focus/f-chat/4268291/posts</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Skip to comments.
+Dikembe Mutombo: Farewell to One of the Giants of Basketball and HumanitarianismPJ Media ^
+ | 10/01/2024
+ | Chris Queen
+Posted on 10/01/2024 8:54:21 AM PDT by SeekAndFind
+One o… [+3073 chars]</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>BroBible</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Cass Anderson</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Everyone Is Blown Away To Discover The Voice Actress Behind Sounds We’ve All Heard Countless Times</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Every so often a story comes along that is so universally relatable it immediately goes viral and that’s exactly what happened to voice actress Kristen DiMircurio who has been revealed to be the voice behind some of the most popular devices in the world. Voic…</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>https://brobible.com/culture/article/voice-actress-kristen-dimircurio-blows-eveyrone-away-tiktok-bluetooth-voice/</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>iStockphoto / Oleksandr Filon
+Every so often a story comes along that is so universally relatable it immediately goes viral and that’s exactly what happened to voice actress Kristen DiMircurio who h… [+2708 chars]</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>The Atlantic</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Jeffrey Rosen</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Dikembe Mutombo Believed in the American Idea</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>The humanitarian and NBA legend was grateful for the freedom he enjoyed, and understood the obligations that came with it.</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>https://www.theatlantic.com/ideas/archive/2024/10/dikembe-mutombo-american-idea/680093/</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>“I only want to be remembered as one of the best defensive players to ever play this game,” Dikembo Mutombo said when he was inducted into the Basketball Hall of Fame in 2015. Mutombo, who died yeste… [+4275 chars]</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Victor Mair</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Junks and sampans</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>These are two premodern words for Chinese watercraft that have worked their way into the English lexicon.  Their etymology, however, is not as straightforward as it might seem. "Language Matters | Where did English get the words ‘sampan’ and ‘junk’ from? Prob…</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>https://languagelog.ldc.upenn.edu/nll/?p=66278</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>« previous post | 
+These are two premodern words for Chinese watercraft that have worked their way into the English lexicon.  Their etymology, however, is not as straightforward as it might seem.
+"… [+8933 chars]</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Bangkok Post</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>New York Times</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Dikembe Mutombo, a towering NBA presence, dies at 58</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;ATLANTA - Dikembe Mutombo, who arrived at Georgetown University as an international student with aspirations of being a doctor but who instead became a towering presence in professional basketball and a dedicated humanitarian in his native Congo, died Mond…</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>https://www.bangkokpost.com/sports/2875637/dikembe-mutombo-a-towering-nba-presence-dies-at-58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ATLANTA - Dikembe Mutombo, who arrived at Georgetown University as an international student with aspirations of being a doctor but who instead became a towering presence in professional basketball an… [+9676 chars]</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>The Irish Times</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>‘In school people are scared to be a bit strange’: Gifted students on life in mainstream schools</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Exceptionally able students can often feel like outsiders - but many feel at home at the Centre for Talented Youth Ireland</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>https://www.irishtimes.com/ireland/education/2024/10/01/in-school-people-are-scared-to-be-a-bit-strange-gifted-students-on-life-in-mainstream-schools/</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Most teenagers like to spend the summer enjoying lie-ins, mooching with friends or maybe working a part-time job. Seventeen-year-old Dylan ORiordan spent it differently: he studied novel writing, the… [+8125 chars]</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Luxuo.com</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sanjeeva Suresh</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Gennady Ayvazyan: How An Investor Helps The Medical Industry</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Gennady Ayvazyan transformed economic uncertainty into opportunity, turning empty store shelves into thriving food distribution networks. His unconventional approach to car dealerships set new industry standards. Now, his investment skills and disciplined lif…</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>https://www.luxuo.com/business/gennady-ayvazyan.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2024-10-01</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Gennady Ayvazyan transformed economic uncertainty into opportunity, turning empty store shelves into thriving food distribution networks. His unconventional approach to car dealerships set new indust… [+18705 chars]</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Reader's Digest</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Jo Ann Liguori</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>This Is What the “O” in “O’clock” Stands For</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>We say this word multiple times a day, but what does it really mean? Two linguists took the time to explain the fascinating origin of o'clock.
+The post This Is What the “O” in “O’clock” Stands For appeared first on Reader's Digest.</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>https://www.rd.com/article/what-does-the-o-in-oclock-stand-for/</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Brat. Whale eye. Barbiecore. In today’s fast-moving world, it can be tough to keep up with all the new words we read or hear. But what about the words we use every day without a second thought? Take … [+8777 chars]</t>
+        </is>
+      </c>
+      <c r="H45" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Cshlp.org</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Hall, K., Müller-Wille, S.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>[Early Release Articles] Legumes and Linguistics: Translating Mendel for the Twenty-First Century</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Gregor Mendel's seminal publication, "Versuche über Pflanzen-Hybriden" ("Experiments on Plant Hybrids"), which appeared in 1866, is regarded as one of the founding documents of genetics and has therefore been translated several times. In 2016, with the suppo…</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>https://cshperspectives.cshlp.org/content/early/2024/09/30/cshperspect.a041811.short?rss=1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Gregor Mendel's seminal publication, Versuche über Pflanzen-Hybriden (Experiments on Plant Hybrids), which appeared in
+ 1866, is regarded as one of the founding documents of genetics and has therefo… [+711 chars]</t>
+        </is>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Uxdesign.cc</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Rômulo Luzia</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The Perennial Art of Conversation Design amid the LLM Era</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Is something we, conversation designers, have heard non-stop ever since that fatidical day in November 2022. Not too long after, I wrote about how generative AI would shake up the conversation design…</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://uxdesign.cc/the-perennial-art-of-conversation-design-amid-the-llm-era-da7eaef360c2</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Conversation Designer, Voice User Interface (VUI) Architect, Conversational Experience Design Consultant, and so, so many more. All titles used to describe these nerdy creatures fascinated by the int… [+3745 chars]</t>
+        </is>
+      </c>
+      <c r="H47" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Yahoo Entertainment</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Yahoo Sports</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Dikembe Mutombo, NBA legend and Hall of Famer, dies of brain cancer at age 58</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mutombo was surrounded by his family when he passed.</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>https://sports.yahoo.com/dikembe-mutombo-nba-legend-and-hall-of-famer-dies-of-brain-cancer-at-age-58-145020807.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Former Atlanta Hawks' Dikembe Mutombo speaks during a halftime ceremony retiring his number at a game between the Hawks and the Boston Celtics in 2015. (AP Photo/David Goldman)
+Hall of Famer, humani… [+4114 chars]</t>
+        </is>
+      </c>
+      <c r="H48" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>GlobeNewswire</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>AstuteAnalytica India Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>GCC Translation Service Market Valuation to Hit US$ 3,807.85 Million By 2032 | UAE to Remain at Top thanks to Economic and Social Factors Says Astute Analytica</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>The GCC translation market is booming, driven by diverse sectors needing specialized services, cloud-based deployments, and a blend of human and machine translations. Key growth areas include legal, medical, and technical translations, fueled by economic dive…</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.globenewswire.com/news-release/2024/09/30/2955300/0/en/GCC-Translation-Service-Market-Valuation-to-Hit-US-3-807-85-Million-By-2032-UAE-to-Remain-at-Top-thanks-to-Economic-and-Social-Factors-Says-Astute-Analytica.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>New Delhi, Sept. 30, 2024 (GLOBE NEWSWIRE) -- GCC translation service market is projected to hit the market valuation of US$ 3,807.85 million by 2032 from US$ 2,188.91 million in 2023 at a CAGR of 6.… [+17391 chars]</t>
+        </is>
+      </c>
+      <c r="H49" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Lithub.com</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Ben Yagoda</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Bell-ends, Pillocks, Numpties, and Sh*tgibbons: Why the Brits Swear Better</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>My book Gobsmacked! The British Invasion of American English—an outgrowth of the Not One-Off Britishisms blog—looks at several hundred words and phrases that have made their way across the pond—including brunch (surprisingly), kerfuffle, easy peasy, and go mi…</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>https://lithub.com/bell-ends-pillocks-numpties-and-shtgibbons-why-the-brits-swear-better/</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>My book Gobsmacked! The British Invasion of American Englishan outgrowth of the Not One-Off Britishisms bloglooks at several hundred words and phrases that have made their way across the pondincludin… [+10334 chars]</t>
+        </is>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Newsweek</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Michel DeGraff</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>I Was Born and Raised in Haiti. Rhetoric Like Trump's Leads to Dark Places</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>I'm a linguistics professor at MIT and an expert in Haitian Creole. Dehumanizing language is everywhere right now.</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>https://www.newsweek.com/i-born-raised-haiti-rhetoric-trump-vance-dark-places-1958995</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ONÈ!
+"Onè" is a Haitian Creole greeting meaning "honor." By saying "Onè!" I honor you as my interlocutor, and I honor your family, your ancestors and your community. In Haiti, the response to my "On… [+14910 chars]</t>
+        </is>
+      </c>
+      <c r="H51" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Insightedge.jp</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ナレッジグラフとLLMを活用したレコメンドシステム - Insight Edge Tech Blog</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>MathJax = {tex: {inlineMath: [['$', '$']]}}; イントロダクション：スーパーマーケットの3つの課題 ナレッジグラフとは ナレッジグラフの活用事例 Google検索 Amazon ECサイトのレコメンドシステムCOSMO ナレッジグラフに関連した論文 Yu et al., COSMO: A large-scale e-commerce common sense knowledge generation and serving system at Amazon[4] Shi …</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>https://techblog.insightedge.jp/entry/knowledgegraph-recommendation</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>3
+220249
+LLM
+POPPOP
+LLM
+ABABAB
+Google
+GoogleInsight Edge
+Google
+Insight EdgeInsight Edge
+Amazon ECCOSMO
+AmazonECCOSMO[4]60%LLMLLM
+Yu et al.[3]
+COSMO
+LLMLLMHuang et al.[1]LLM
+3
+Yu et a… [+1556 chars]</t>
+        </is>
+      </c>
+      <c r="H52" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Stanford.edu</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Getting to know Stanford’s first data science faculty</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Two researchers are named as inaugural faculty of Stanford Data Science. Their work spans multiple disciplines but is united by the desire to explore and leverage large volumes of real-world data.</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>https://news.stanford.edu/stories/2024/09/getting-to-know-stanford-s-first-data-science-faculty</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2024-09-30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>What does someone studying the brain have in common with someone studying weather patterns? asked data scientist Laura Gwilliams. Answer: Complex spatio-temporal patterns in data!
+Gwilliams and Bria… [+6730 chars]</t>
+        </is>
+      </c>
+      <c r="H53" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CNET</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Samantha Kelly</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>'Superintelligent' AI Is Only a Few Thousand Days Away: OpenAI CEO Sam Altman</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Altman predicts that with AI in the future, "We will be able to do things that would have seemed like magic to our grandparents."</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.cnet.com/tech/services-and-software/superintelligent-ai-is-only-a-few-thousand-days-away-openai-ceo-sam-altman/</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Sam Altman, CEO of ChatGPT-maker OpenAI, believes superintelligent artificial intelligence is only a "few thousand days" away, and will change the way we live forever.
+Altman outlined his optimistic… [+2044 chars]</t>
+        </is>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Newsweek</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Martha McHardy</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>'Wordle' #1,198 Hints, Clues and Answer for Saturday, September 29 Game</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>The word puzzle, created by Brooklyn-based software engineer Josh Wardle in January 2021, quickly gained global popularity.</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>https://www.newsweek.com/wordle-clues-answer-sunday-september-29-game-1198-today-1960748</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2024-09-29</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>If you are having trouble with today's Wordlepuzzle, we have a few helpful clues for you.
+Wordle, created by Brooklyn-based software engineer Josh Wardle in January 2021, quickly gained global popul… [+2571 chars]</t>
+        </is>
+      </c>
+      <c r="H55" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>The Star Online</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>The Star Online</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>High demand for ‘human touch’ jobs</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>ARTIFICIAL intelligence (AI) is reshaping many sectors, but human-led roles in healthcare and engineering remain in high demand, say experts. Read full story</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>https://www.thestar.com.my/news/education/2024/09/29/high-demand-for-human-touch-jobs</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ARTIFICIAL intelligence (AI) is reshaping many sectors, but human-led roles in healthcare and engineering remain in high demand, say experts.
+Mahsa University Faculty of Health Sciences, Nursing and… [+9016 chars]</t>
+        </is>
+      </c>
+      <c r="H56" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Twistedsifter.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Michael Levanduski</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>New Study Claims That Current AI Technology Is Not A Threat To Humans</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Maybe AI is hiding its ability to learn new tasks so it doesn't get shut down.</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>http://twistedsifter.com/2024/09/new-study-claims-that-current-ai-technology-is-not-a-threat-to-humans/</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Over the past couple years, large language model (LLM) technology, which powers ‘Artificial Intelligence’ (AI) systems like ChatGPT have become extremely popular.
+Not surprisingly, this has gotten a… [+2708 chars]</t>
+        </is>
+      </c>
+      <c r="H57" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The National Interest </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Brian Patrick Bolger</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>The Russian Military Isn't Bluffing</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Europe faces a double existential threat. The first part is of its own making. The second is a Russian military attack on NATO. The Norwegian chief of staff, Eirik Kristoffersen, was quoted this month in Bloomberg as saying that NATO has only two or three yea…</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>https://nationalinterest.org/blog/buzz/russian-military-isnt-bluffing-212995</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Europe faces a double existential threat. The first part is of its own making. The second is a Russian military attack on NATO. The Norwegian chief of staff, Eirik Kristoffersen, was quoted this mont… [+6143 chars]</t>
+        </is>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mark Liberman</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Is English a "creole language"?</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>The first two panels of today's SMBC: The rest of the strip: The AfterComic: The mouseover title: "Hoping the Welsh isn't lol." The premise seems to be that King Arthur has arisen again, to deal with socio-economic crises in today's Britain. I'll leave interp…</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://languagelog.ldc.upenn.edu/nll/?p=66229</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>« previous post | 
+The first two panels of today's SMBC:
+The rest of the strip:
+The AfterComic:
+The mouseover title: "Hoping the Welsh isn't lol."
+The premise seems to be that King Arthur has ar… [+4408 chars]</t>
+        </is>
+      </c>
+      <c r="H59" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>The Times of India</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ET Online</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Igniting the fire of knowledge: Meet Dhanayya Kauntagi, a teacher breaking records</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Dhanayya Guralingayya Kauntagi, a primary school teacher from Tolanur village, has cleared 77 eligibility tests across 18 states, including four NETs and 36 SETs. Despite early academic struggles, he has achieved recognition in multiple record books. He conti…</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>https://economictimes.indiatimes.com/news/india/igniting-the-fire-of-knowledge-meet-dhanayya-kauntagi-a-teacher-breaking-records/articleshow/113763498.cms</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Greek philosopher Plutarch once said, "The mind is not a vessel to be filled, but a fire to be ignited." While igniting that fire can be challenging, sustaining it is an even greater test, especially… [+2571 chars]</t>
+        </is>
+      </c>
+      <c r="H60" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>newsBTC</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Rubmar Garcia</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Analysts Think Solana Could ‘Go Nuts’ As SOL Price Retests $160 Resistance</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Solana (SOL) broke above a key resistance level on Friday, fueling the bullish sentiment that reignited over a week ago. As a result, some analysts think the fifth-largest cryptocurrency by market capitalization could be about to see a massive bull run as “Up…</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>http://www.newsbtc.com/news/solana/analysts-think-solana-could-go-nuts-as-sol-price-retests-160-resistance/</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2024-09-28</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Rubmar is a writer and translator who has been a crypto enthusiast for the past four years. Her goal as a writer is to create informative, complete, and easily understandable pieces accessible to tho… [+3487 chars]</t>
+        </is>
+      </c>
+      <c r="H61" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>IndieWire</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Wilson Chapman</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Every Francis Ford Coppola Film Ranked From Worst to Best</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Best Francis Ford Coppola Movies: Megalopolis, The Godfather, Apocalypse Now, The Outsiders, One From the Heart, The Conversatin, and more.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>https://www.indiewire.com/gallery/best-francis-ford-coppola-movies/</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Today marks the long-awaited arrival of “Megalopolis,” legendary director Francis Ford Coppola’s first film in 13 years. But the process of getting the experimental epic, about a dreamlike version of… [+33592 chars]</t>
+        </is>
+      </c>
+      <c r="H62" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>GamesRadar+</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Eric Francisco</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Hate sci-fi movies? 32 movies to change your mind</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>If androids and aliens leave you yawning, check out these sci-fi flicks off the beaten path</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>https://www.gamesradar.com/entertainment/sci-fi-movies/hate-sci-fi-movies-32-movies-to-change-your-mind/</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Science fiction is a tremendously fun and flexible genre of cinema. But even still, it isn't everyone's cup of tea. (Earl Grey. Hot.
+) But might there be sci-fi movies that go against the galactic g… [+23021 chars]</t>
+        </is>
+      </c>
+      <c r="H63" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Vulture</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Scott Tobias</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Every Francis Ford Coppola Movie, Ranked</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Francis Ford Coppola is an iconoclast who’s never been afraid to invest himself in his own outsize, impossible artistic vision. With the release of his latest (and perhaps final) film, ‘Megalopolis’, we ranked every Coppola movie.</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>http://www.vulture.com/article/best-francis-ford-coppola-movies-ranked.html</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>This list was originally published on April 5, 2018. It has been updated to includeMegalopolis.
+Over the many phases of Francis Ford Coppolas half-century-long career the freewheeling 60s, the epic … [+25290 chars]</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Mark Liberman</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Freudian slip of the week</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>That'll be tough to explain… [image or embed] — George Takei (@georgetakei.bsky.social) September 25, 2024 at 6:00 PM The material below is taken from my lecture notes for my undergraduate Introduction to Linguistics course at Penn: In figuring out how the br…</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>https://languagelog.ldc.upenn.edu/nll/?p=66219</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>« previous post | 
+That'll be tough to explain…
+[image or embed]
+ George Takei (@georgetakei.bsky.social) September 25, 2024 at 6:00 PM
+The material below is taken from my lecture notes for my un… [+9101 chars]</t>
+        </is>
+      </c>
+      <c r="H65" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>The Irish Times</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Jack White</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>‘If you’re my age and finally arriving at university, you have a great appreciation for being there’</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Case Study: mature student Caroline Cahill (46)</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>https://www.irishtimes.com/ireland/education/2024/09/27/if-youre-my-age-and-finally-arriving-at-university-you-have-a-great-appreciation-for-being-there/</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>I wish I had known earlier that it was so possible and feasible, says Caroline Cahill, a 46-year-old mature student from Newtownmountkennedy, Co Wicklow.
+Her decision to attend university at the age… [+2519 chars]</t>
+        </is>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Plos.org</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Sumi Kato, Kazuaki Hanawa, Manabu Saito, Kazuhiko Nakamura</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Creating a diagnostic assessment model for autism spectrum disorder by differentiating lexicogrammatical choices through machine learning</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>This study explores the challenge of differentiating autism spectrum (AS) from non-AS conditions in adolescents and adults, particularly considering the heterogeneity of AS and the limitations ofssss diagnostic tools like the ADOS-2. In response, we advocate …</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0311209</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Introduction
+Autism spectrum (AsS) is a neurodevelopmental condition characterized by persistent difficulties in social communication and interactions across various situations. Alongside this, indi… [+63795 chars]</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Lawyersgunsmoneyblog.com</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Paul Campos</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Law school finance follies</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>A reporter working on a story about the absurdity of the USN college rankings called me yesterday, saying that she had heard that a law school whose identity I will keep strictly anonymous, but that is located in Tom Petty’s home town, had run up huge deficit…</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>https://www.lawyersgunsmoneyblog.com/2024/09/law-school-finance-follies</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>A reporter working on a story about the absurdity of the USN college rankings called me yesterday, saying that she had heard that a law school whose identity I will keep strictly anonymous, but that … [+4665 chars]</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Scientific American</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Brianne Kane</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Science-Fiction Books Scientific American’s Staff Love</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Scientific American’s staff share their favorite sci-fi books, from beloved classics to overlooked gems and our modern favorites</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>https://www.scientificamerican.com/article/science-fiction-books-scientific-americans-staff-love/</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>There are few things as memorable to a young reader as the first spaceship they wanted to be onboard or the first fantastical world they wished to inhabit. If you’ve ever discussed the mechanics of w… [+32798 chars]</t>
+        </is>
+      </c>
+      <c r="H69" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>The Conversation Africa</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Daniel Read, Professor of Behavioural Science, Warwick Business School, University of Warwick</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Fyre Festival II: why people give fraudsters a second chance</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Even an investor who lost US$1 million was willing to talk to Billy McFarland about Fyre Festival II</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://theconversation.com/fyre-festival-ii-why-people-give-fraudsters-a-second-chance-239013</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>The Fyre music festival and its well-publicised failure are widely seen as a mixture of incompetence and fraud, embodied in Billy McFarland, its chief architect. People paid thousands of dollars for … [+5365 chars]</t>
+        </is>
+      </c>
+      <c r="H70" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Techreport.com</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Justin Van Gent</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The Top 7 Best Sci-Fi Movies in 2024 and Where to Watch Them</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>The best sci-fi movies make for some great futuristic-themed escapism without compromising on a thought-provoking storyline. If you’re on the lookout for such gems, keep reading. This article includes some...
+The post The Top 7 Best Sci-Fi Movies in 2024 and …</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>https://techreport.com/streaming-news/best-sci-fi-movies/</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>The best sci-fi movies make for some great futuristic-themed escapism without compromising on a thought-provoking storyline. If youre on the lookout for such gems, keep reading. This article includes… [+15772 chars]</t>
+        </is>
+      </c>
+      <c r="H71" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Dataversity.net</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Nahla Davies</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>The Hidden Language of Data: How Linguistic Analysis Is Transforming Data Interpretation</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>From Fortune 500 companies to local startups, everyone’s swimming in a sea of numbers, charts, and graphs. But here’s the thing: While structured data like sales figures and customer demographics have long been the backbone of analytics, there’s a growing rea…</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>https://www.dataversity.net/the-hidden-language-of-data-how-linguistic-analysis-is-transforming-data-interpretation/</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>From Fortune 500 companies to local startups, everyones swimming in a sea of numbers, charts, and graphs. But heres the thing: While structured data like sales figures and customer demographics have … [+8839 chars]</t>
+        </is>
+      </c>
+      <c r="H72" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Newsweek</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ryan Smith</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>'Wordle' #1,196 Hints, Clues and Answer for Friday, September 27 Game</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Be sure to end the week on a winning note with the help of today's hints and tips for the popular word-based game.</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>https://www.newsweek.com/wordle-today-clues-answer-friday-september-27-game-1196-1959789</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>It's hard to be believe that just a few short years ago, there was no such thing as Wordle—at least in the lives and minds of the greater public.
+Years after coming up with the initial concept, Josh… [+2674 chars]</t>
+        </is>
+      </c>
+      <c r="H73" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>POPSUGAR</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Emma Glassman-Hughes</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>The Opposite of ASMR: Why Men on TikTok Yell, According to Experts</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Almost all of Armen Adamjan's videos start with a question that borders on an interrogation: "DID YOU KNOW YOU CAN MAKE A NATURAL CLEANING SPRAY OUT OF ORANGE PEELS AND VINEGAR!?" 
+The first time the Instagram algorithm served me one of his reels, I was insta…</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>https://www.popsugar.com/balance/tiktok-yelling-49396163</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Almost all of Armen Adamjan's videos start with a question that borders on an interrogation: "DID YOU KNOW YOU CAN MAKE A NATURAL CLEANING SPRAY OUT OF ORANGE PEELS AND VINEGAR!?" 
+The first time th… [+8050 chars]</t>
+        </is>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>literarydruid@gmail.com</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Literary Musings - Regular Issue December 2024</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>updated: 
+Sunday, September 29, 2024 - 7:34am
+Literary Musings
+deadline for submissions: 
+Wednesday, November 20, 2024
+Call for - Literary Musings Online - 2584-1459Academic JournalResearch Academy</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>http://call-for-papers.sas.upenn.edu/cfp/2024/09/26/literary-musings-regular-issue-december-2024</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Call for - Literary Musings Online - 2584-1459Academic JournalResearch Academy
+The primary aim of "Literary Musings" is to provide a platform for scholars, researchers, and professionals working in … [+741 chars]</t>
+        </is>
+      </c>
+      <c r="H75" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>literarydruid@gmail.com</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Literary Druid - Regular Issue October 2024</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>updated: 
+Sunday, September 29, 2024 - 7:34am
+Maheswari Publishers (The publishing unit of PANDIAN EDUCATIONAL TRUST- TN32D0026797)
+deadline for submissions: 
+Tuesday, October 15, 2024
+Literary Druid is a journal that fosters research and creative writin…</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>http://call-for-papers.sas.upenn.edu/cfp/2024/09/26/literary-druid-regular-issue-october-2024</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Literary Druid is a journal that fosters research and creative writing in English. It welcomes all nationals to contribute for learning and research purposes. The perspective of Literary Druid is to … [+1325 chars]</t>
+        </is>
+      </c>
+      <c r="H76" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Plos.org</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Wongsatorn Worakittikul, Chatrawee Saenwerm, Phaninee Naruetharadhol</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Unlocking the secrets of green semiotics: The revolutionary power of eco-symbols in transforming consumer perceptions and catalyzing behavioral shifts in emerging markets</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>This study delves into the intriguing dynamics between green semiotics and brand experiences, examining how elements like color, image, logo, and font not only shape brand experiences towards eco-friendly products but also influence green consumer behavior an…</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0310963</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Abstract
+This study delves into the intriguing dynamics between green semiotics and brand experiences, examining how elements like color, image, logo, and font not only shape brand experiences towar… [+127200 chars]</t>
+        </is>
+      </c>
+      <c r="H77" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Mark Liberman</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>"The cosmic jam from whence it came"</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Elle Cordova offers an update from ChatGTP on the number of Rs in "strawberry": As of this morning, ChatGPT 4o gives me the same old boring wrong answer of "2": But @nemonaught2772 (in a youTube comment) guides ChatGPT down  an impressively creative rabbit ho…</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>https://languagelog.ldc.upenn.edu/nll/?p=66206</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>« previous post | 
+Elle Cordova offers an update from ChatGTP on the number of Rs in "strawberry":
+As of this morning, ChatGPT 4o gives me the same old boring wrong answer of "2":
+But @nemonaught2… [+3791 chars]</t>
+        </is>
+      </c>
+      <c r="H78" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Cloudtweaks.com</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Cornell Anthony</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Is Prompt Engineering the Game-changer Companies Need to Stay Competitive?</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Will Prompt Engineering Give Companies a Competitive Edge? The World Economic Forum called prompt engineering the “job of the future,” and companies of all shapes and sizes are already creating prompt engineering positions. Can prompt engineering help compani…</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>https://cloudtweaks.com/2024/09/is-prompt-engineering-game-changer/</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>The World Economic Forumcalled prompt engineeringthe job of the future, and companies of all shapes and sizes are already creating prompt engineering positions. Can prompt engineering help companies … [+8852 chars]</t>
+        </is>
+      </c>
+      <c r="H79" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Newsweek</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Ryan Smith</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>'Wordle' #1,195 Hints, Clues and Answer for Thursday, September 26 Game</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Stuck on today's "Wordle" puzzle? Newsweek has provided all the information you need to secure a win.</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>https://www.newsweek.com/wordle-today-clues-answer-thursday-september-26-game-1195-1959223</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Another day, another Wordle puzzle—and today's brainteaser promises to be a challenging one.
+The popular game was invented by Josh Wardle, a Welsh-born software engineer based in New York City. He p… [+2689 chars]</t>
+        </is>
+      </c>
+      <c r="H80" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>National Geographic</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Francisco del Río</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>This ancient script has remained unsolved for over a century</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>In 1908, an archaeologist in Crete discovered a small clay disk bearing unknown symbols. Now known as the Phaistos disk, it remains a modern enigma.</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>https://www.nationalgeographic.com/history/article/phaistos-clay-disk-minoans-mystery</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2024-09-26</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>(The monstrous Minotaur riveted ancient Greece and Rome.)
+The Minoans were a wealthy Bronze Age society of seafaring traders known for their palaces, great cities, and art. And because of where the … [+4692 chars]</t>
+        </is>
+      </c>
+      <c r="H81" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Thehillstimes.in</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>The Hills Times</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Recommendations not applicable in 6th Schedule areas sans consent: Assam CM Himanta Biswa Sarma</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GUWAHATI, Sept 25: The Assam government and the All Assam Students’ Union (AASU) on Wednesday discussed the implementation of Justice (Retd) Biplab Sarma committee’s recommendations on Clause 6 of the Assam Accord to protect the interests of the indigenous po…</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://thehillstimes.in/assam/recommendations-not-applicable-in-6th-schedule-areas-sans-consent-assam-cm-himanta-biswa-sarma</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>GUWAHATI, Sept 25: The Assam government and the All Assam Students Union (AASU) on Wednesday discussed the implementation of Justice (Retd) Biplab Sarma committees recommendations on Clause 6 of the … [+3443 chars]</t>
+        </is>
+      </c>
+      <c r="H82" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Truthout</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Frances Madeson</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Dispatch From Missouri: Mourners Decry Execution of Marcellus Williams</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Bearing witness to Missouri’s latest state-sponsored killing, mourners spoke out at a vigil outside the execution room.</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>https://truthout.org/articles/dispatch-from-missouri-mourners-decry-execution-of-marcellus-williams/</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Part of the Series
+The State of Missouri put its lethal hands on another of its longtime death penalty captives on Tuesday evening in Bonne Terre, prematurely ending his life with a poison injection… [+12666 chars]</t>
+        </is>
+      </c>
+      <c r="H83" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Dzone.com</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Salman Khan</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Probabilistic Graphical Models: A Gentle Introduction</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>What Are Probabilistic Graphical Models (PGMs)?
+ Probabilistic models represent complex systems by defining a joint probability distribution over multiple random variables, effectively capturing the uncertainty and dependencies within the system. However, a…</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>https://dzone.com/articles/probablistic-graphical-models-a-gentle-intro</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>What Are Probabilistic Graphical Models (PGMs)?
+Probabilistic models represent complex systems by defining a joint probability distribution over multiple random variables, effectively capturing the … [+20997 chars]</t>
+        </is>
+      </c>
+      <c r="H84" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Live Science</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Margaret Osborne</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>32 of the world's smartest animals</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Though measuring animal intelligence is tricky, some animals show remarkable cognitive abilities that may rival our own.</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>https://www.livescience.com/animals/32-of-the-smartest-animals-in-the-world</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Measuring animal intelligence is tricky. As humans, we can only compare the smarts of other creatures with our own — an inherently biased benchmark.
+"Asking which species is smarter is like asking i… [+32876 chars]</t>
+        </is>
+      </c>
+      <c r="H85" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Plos.org</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Tifenn Fauviaux, Ludovic Marin, Mathilde Parisi, Richard Schmidt, Ghilès Mostafaoui</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>From unimodal to multimodal dynamics of verbal and nonverbal cues during unstructured conversation</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Conversations encompass continuous exchanges of verbal and nonverbal information. Previous research has demonstrated that gestures dynamically entrain each other and that speakers tend to align their vocal properties. While gesture and speech are known to syn…</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://journals.plos.org/plosone/article?id=10.1371/journal.pone.0309831</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Introduction
+Social interaction, such as face-to-face communication, can be mirrored as a complex choreography wherein each speaker mutually exchanges perceptual information through the vocal (audit… [+65966 chars]</t>
+        </is>
+      </c>
+      <c r="H86" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>newsBTC</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Rubmar Garcia</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Cardano (ADA) Reclaims Top 10 Crypto Spot, Analysts Set New Targets</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Cardano (ADA) has seen a remarkable performance over the week, surging over 10% and reentering the top ten cryptocurrencies by market capitalization list. Its recent price action has fueled a bullish sentiment among investors and market watchers, who believe …</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>http://www.newsbtc.com/news/cardano-ada-reclaims-top-10-crypto-spot-analysts-set-new-targets/</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Rubmar is a writer and translator who has been a crypto enthusiast for the past four years. Her goal as a writer is to create informative, complete, and easily understandable pieces accessible to tho… [+3487 chars]</t>
+        </is>
+      </c>
+      <c r="H87" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>HuffPost</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Brittany Wong</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Why Does Trump Do That Weird Capitalization Thing? Experts Dissect His Language Patterns.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Is the former president a skilled orator or a relentless yapper? Here's what linguists think.</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>https://www.huffpost.com/entry/trump-weird-capitalization-language_n_66f1a9fae4b03a18c4a2602c</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2024-09-25</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Linguists agree: No one speaks quite like former President Donald Trump. 
+Reading a typical Truth Social post from former President Donald Trump is a wild ride, rhetorically speaking: Theres name-ca… [+14292 chars]</t>
+        </is>
+      </c>
+      <c r="H88" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Phys.Org</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>New York University</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Researchers unpack sign language's visual advantage</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Linguists have long known that sign languages are as grammatically and logically sophisticated as spoken languages—and also make greater use of "iconicity," the property by which some words refer to things by resembling them. For instance, the sound of an Eng…</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>https://phys.org/news/2024-09-language-visual-advantage.html</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Linguists have long known that sign languages are as grammatically and logically sophisticated as spoken languagesand also make greater use of "iconicity," the property by which some words refer to t… [+7593 chars]</t>
+        </is>
+      </c>
+      <c r="H89" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Live Science</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>ben.turner@futurenet.com (Ben Turner)</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Will language face a dystopian future? How 'Future of Language' author Philip Seargeant thinks AI will shape our communication</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Philip Seargeant tells us how AI will shape the future of our language use.</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>https://www.livescience.com/technology/artificial-intelligence/brain-computer-interfaces-ai-and-real-time-censorship-how-modern-tech-is-shaping-the-future-of-language</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Technologies such as brain-computer interfaces, artificial intelligence
+ (AI), predictive texting and autocomplete are already transforming language as we know it.
+But how significant will that cha… [+11897 chars]</t>
+        </is>
+      </c>
+      <c r="H90" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Science Daily</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Lengthened consonants mark the beginning of words</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Speech consists of a continuous stream of acoustic signals, yet humans can segment words from each other with astonishing precision and speed. To find out how this is possible, a team of linguists has analysed durations of consonants at different positions in…</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.sciencedaily.com/releases/2024/09/240924123006.htm</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Speech consists of a continuous stream of acoustic signals, yet humans can segment words from each other with astonishing precision and speed. To find out how this is possible, a team of linguists ha… [+3401 chars]</t>
+        </is>
+      </c>
+      <c r="H91" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Psychology Today</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Corinne Masur Psy.D.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Do Your Kids Know How to Learn?</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Kids are not taught how to learn in school. But Daniel Willingham, in his recent books, describes how children can be taught to organize themselves and learn effectively.</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>https://www.psychologytoday.com/intl/blog/parenting-matters/202409/do-your-kids-know-how-to-learn</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Daniel Willingham is a cognitive scientist, by which I mean, he is an academic researcher who extracts information from psychology, neuroscience, linguistics, philosophy, computer science, and anthro… [+3546 chars]</t>
+        </is>
+      </c>
+      <c r="H92" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Avril Tynan</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Call for submissions in all areas of narrative theory and studies</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>updated: 
+Thursday, September 26, 2024 - 6:47am
+Storyworlds: A Journal of Narrative Studies
+deadline for submissions: 
+Tuesday, December 31, 2024
+Call for submissions in all areas of narrative theory and studies
+Storyworlds is an interdisciplinary jour…</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>http://call-for-papers.sas.upenn.edu/cfp/2024/09/24/call-for-submissions-in-all-areas-of-narrative-theory-and-studies</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Call for submissions in all areas of narrative theory and studies
+Storyworlds is an interdisciplinary journal of narrative studies. We publish cutting-edge research on storytelling practices across … [+2554 chars]</t>
+        </is>
+      </c>
+      <c r="H93" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Phys.Org</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Bob Yirka</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Researchers determine female gibbons dance for attention</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>A trio of researchers, one a zoologist, another a primatologist and the third a linguistics professor, from Institut Jean Nicod, Heinrich Heine University and the University of Oslo, respectively, have discovered that female gibbons engage in a strange type o…</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>https://phys.org/news/2024-09-female-gibbons-attention.html</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>A trio of researchers, one a zoologist, another a primatologist and the third a linguistics professor, from Institut Jean Nicod, Heinrich Heine University and the University of Oslo, respectively, ha… [+3097 chars]</t>
+        </is>
+      </c>
+      <c r="H94" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Phys.Org</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Max Planck Society</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>New study shows that word-initial consonants are systematically lengthened across diverse languages</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Speech consists of a continuous stream of acoustic signals, yet humans can segment words from each other with astonishing precision and speed. To find out how this is possible, a team of linguists has analyzed durations of consonants at different positions in…</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>https://phys.org/news/2024-09-word-consonants-systematically-lengthened-diverse.html</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Speech consists of a continuous stream of acoustic signals, yet humans can segment words from each other with astonishing precision and speed. To find out how this is possible, a team of linguists ha… [+4118 chars]</t>
+        </is>
+      </c>
+      <c r="H95" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Polygon</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Christopher Gates</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>You can learn to speak Elvish — just not J.R.R. Tolkien’s Elvish</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>On Nov. 29, 1931, J.R.R. Tolkien introduced the world to Middle-earth — the most important part of it, anyway. The Hobbit wouldn’t be published for six more years. The Lord of the Rings was still decades away. But on that autumn night, when the renowned philo…</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.polygon.com/lord-of-the-rings/455300/how-to-speak-elvish-tolkien-lotr</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>On Nov. 29, 1931, J.R.R. Tolkien introduced the world to Middle-earth — the most important part of it, anyway. The Hobbit wouldn’t be published for six more years. The Lord of the Rings was still dec… [+8407 chars]</t>
+        </is>
+      </c>
+      <c r="H96" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Upenn.edu</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Rita Saomi</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>The (SCOPUS / ISI) SOAS GLOCAL African Assembly on Linguistic Anthropology 2024</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>updated: 
+Tuesday, September 24, 2024 - 4:42am
+University of South Africa and GLOCAL at SOAS University of London
+deadline for submissions: 
+Monday, October 21, 2024
+Call for Abstracts - The SOAS GLOCAL AFALA 2024(The GLOCAL African Assembly on Linguisti…</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>http://call-for-papers.sas.upenn.edu/cfp/2024/09/23/the-scopus-isi-soas-glocal-african-assembly-on-linguistic-anthropology-2024</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2024-09-24</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Call for Abstracts - The SOAS GLOCAL AFALA 2024(The GLOCAL African Assembly on Linguistic Anthropology)(SCOPUS / ISI (AHCI / SSCI / CPCI) indexed)
+Field(s): Anthropological Linguistics; Discourse An… [+3597 chars]</t>
+        </is>
+      </c>
+      <c r="H97" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Amazon.com</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Lukas Wenzel</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Generate synthetic data for evaluating RAG systems using Amazon Bedrock</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>In this post, we explain how to use Anthropic Claude on Amazon Bedrock to generate synthetic data for evaluating your RAG system.</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://aws.amazon.com/blogs/machine-learning/generate-synthetic-data-for-evaluating-rag-systems-using-amazon-bedrock/</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Evaluating your Retrieval Augmented Generation (RAG) system to make sure it fulfils your business requirements is paramount before deploying it to production environments. However, this requires acqu… [+28717 chars]</t>
+        </is>
+      </c>
+      <c r="H98" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Omnigroup.com</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Andrew Mason</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>The Omni Show: How Lynne Murphy Uses OmniFocus</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Today, we sit down with Lynne Murphy, a professor of linguistics at the University of Sussex, who shares how she uses OmniFocus to deftly manage the demands of her academic career, international travels, and personal commitments.Lynne offers a peek into the m…</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>https://www.omnigroup.com/blog/the-omni-show-how-lynne-murphy-uses-omnifocus</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2024-09-23</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Today, we sit down with Lynne Murphy, a professor of linguistics at the University of Sussex, who shares how she uses OmniFocus to deftly manage the demands of her academic career, international trav… [+619 chars]</t>
+        </is>
+      </c>
+      <c r="H99" s="3" t="n">
+        <v>45572</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
